--- a/Assets/OriginalDatas/InGameEvent.xlsx
+++ b/Assets/OriginalDatas/InGameEvent.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -465,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +495,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -516,8 +523,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -801,596 +809,598 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Assets/OriginalDatas/InGameEvent.xlsx
+++ b/Assets/OriginalDatas/InGameEvent.xlsx
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>EventID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,13 +459,39 @@
   </si>
   <si>
     <t>UpgradeEffectID18</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event19</t>
+  </si>
+  <si>
+    <t>EventDes19</t>
+  </si>
+  <si>
+    <t>UpgradeEffectID19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +528,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -523,9 +557,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F20"/>
+      <selection activeCell="G20" sqref="G20:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1070,7 +1105,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -1099,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
@@ -1128,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -1157,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
         <v>5</v>
@@ -1186,7 +1221,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -1402,6 +1437,35 @@
       </c>
       <c r="I20" s="1" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
